--- a/docs/Journal-de-Travail_DePinaCorreiaRyan.xlsx
+++ b/docs/Journal-de-Travail_DePinaCorreiaRyan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28803"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pa70iyc\Documents\GitHub\Passion_Lecture_App\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DA0746-2160-4CFF-AA5E-1A3FF0024634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2961385-2BC7-44B3-A24C-45FA977B41DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="3570" yWindow="2685" windowWidth="22875" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -49,25 +49,13 @@
     <t>Auteur:</t>
   </si>
   <si>
+    <t>De Pina Correia Ryan</t>
+  </si>
+  <si>
     <t>Projet:</t>
   </si>
   <si>
-    <t>Analyse</t>
-  </si>
-  <si>
-    <t>Développement</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>Présentation</t>
+    <t>P_App - Passion Lecture</t>
   </si>
   <si>
     <t>Temps total:</t>
@@ -76,13 +64,106 @@
     <t>Date:</t>
   </si>
   <si>
+    <t>17.03.2024  au 26.05.2024</t>
+  </si>
+  <si>
+    <t>Temps</t>
+  </si>
+  <si>
     <t>Semaine</t>
   </si>
   <si>
     <t>Jour</t>
   </si>
   <si>
+    <t>heure</t>
+  </si>
+  <si>
+    <t>min.</t>
+  </si>
+  <si>
+    <t>Activité</t>
+  </si>
+  <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Remarque / problème</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>Explication de l'enseignant sur le nouveau projet</t>
+  </si>
+  <si>
+    <t>Pas fait les mises à jours</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Mise en place du repo Git et du Figma et de la structure du projet</t>
+  </si>
+  <si>
+    <t>Faire le ReadMe pour le github</t>
+  </si>
+  <si>
+    <t>Développement</t>
+  </si>
+  <si>
+    <t>Lecture du CDC puis se renseigner pour comment faire le projet</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Commencement du projet et de toute son arboresence</t>
+  </si>
+  <si>
+    <t>Continuation du code et en parallele se rensigner, comment faire une connexion a une api avec un android depuis un serveur web</t>
+  </si>
+  <si>
+    <t>.sln disparu au debut de la session de code donc j ai du le regenerer</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>J ai pu faire deja la partie frontend pour commencer a voir si nous pouvions voir les books</t>
+  </si>
+  <si>
+    <t>Je n arrive toujours pas a faire la connexion a l api</t>
+  </si>
+  <si>
+    <t>Présentation</t>
+  </si>
+  <si>
+    <t>Aucun avancement je n arrivais pas a faire la connexion / (Mathis m'a debloquer et a trouver le probleme donc j ai pu continuer et a faire mon viewModel</t>
+  </si>
+  <si>
+    <t>Oublie de creer le fichier security network</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>J ai fait la connexion a l api grace a une video ("https://www.youtube.com/watch?v=kvNhLKuAySA&amp;t=730s") et finalement tout fonctionne</t>
+  </si>
+  <si>
+    <t>Il me manque l affichage et l implementation des images pour les livres</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>J'ai verifier mon projet avant les vacances et me remets a jour avant de recommencer a la fin des vacances</t>
+  </si>
+  <si>
+    <t>Heures</t>
+  </si>
+  <si>
+    <t>Minutes</t>
   </si>
   <si>
     <t>Type d'activité</t>
@@ -91,52 +172,7 @@
     <t>Total heures</t>
   </si>
   <si>
-    <t>Temps</t>
-  </si>
-  <si>
-    <t>min.</t>
-  </si>
-  <si>
-    <t>Heures</t>
-  </si>
-  <si>
-    <t>Minutes</t>
-  </si>
-  <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Autre</t>
-  </si>
-  <si>
-    <t>P_App - 335 - Passion Lecture</t>
-  </si>
-  <si>
-    <t>heure</t>
-  </si>
-  <si>
-    <t>Activité</t>
-  </si>
-  <si>
-    <t>Remarque / problème</t>
-  </si>
-  <si>
-    <t>De Pina Correia Ryan</t>
-  </si>
-  <si>
-    <t>17.03.2024  au 26.05.2024</t>
-  </si>
-  <si>
-    <t>Explication de l'enseignant sur le nouveau projet</t>
-  </si>
-  <si>
-    <t>Pas fait les mises à jours</t>
-  </si>
-  <si>
-    <t>Mise en place du repo Git et du Figma et de la structure du projet</t>
   </si>
 </sst>
 </file>
@@ -151,7 +187,7 @@
     <numFmt numFmtId="168" formatCode="00\ &quot;min&quot;"/>
     <numFmt numFmtId="169" formatCode="hh\ &quot;h&quot;\ mm\ &quot;min&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -463,80 +499,6 @@
   <dxfs count="17">
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -707,6 +669,80 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -729,7 +765,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -796,7 +832,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1067,13 +1103,13 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.60416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.375E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1082,7 +1118,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7361111111111112E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1791,18 +1827,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1998,10 +2034,10 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
@@ -2018,7 +2054,7 @@
     <col min="15" max="15" width="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -2029,86 +2065,86 @@
       </c>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="23.25">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D2" s="57"/>
       <c r="E2" s="57"/>
       <c r="F2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="23.25">
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 1 heurs 25 minutes</v>
+        <v>0 jours 17 heurs 45 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="23.25" hidden="1">
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>60</v>
+        <v>960</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>85</v>
+        <v>1065</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="C5" s="58" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D5" s="58"/>
     </row>
-    <row r="6" spans="1:15" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="D6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>17</v>
-      </c>
       <c r="E6" s="19" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="14">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</f>
         <v>12</v>
@@ -2123,16 +2159,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5">
       <c r="A8" s="8">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
         <v>12</v>
@@ -2142,17 +2178,17 @@
       </c>
       <c r="C8" s="47"/>
       <c r="D8" s="48">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G8" s="55"/>
       <c r="M8" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2161,19 +2197,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="str">
+    <row r="9" spans="1:15" ht="16.5">
+      <c r="A9" s="16">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
-        <v/>
-      </c>
-      <c r="B9" s="50"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="50">
+        <v>45733</v>
+      </c>
       <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="36"/>
+      <c r="D9" s="52">
+        <v>15</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="G9" s="56"/>
       <c r="M9" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -2182,19 +2226,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
+    <row r="10" spans="1:15" ht="16.5">
+      <c r="A10" s="8">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
-        <v/>
-      </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="36"/>
+        <v>12</v>
+      </c>
+      <c r="B10" s="46">
+        <v>45733</v>
+      </c>
+      <c r="C10" s="47">
+        <v>1</v>
+      </c>
+      <c r="D10" s="48">
+        <v>15</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="G10" s="55"/>
       <c r="M10" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -2203,19 +2257,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="str">
+    <row r="11" spans="1:15" ht="16.5">
+      <c r="A11" s="16">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
-        <v/>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
+        <v>13</v>
+      </c>
+      <c r="B11" s="50">
+        <v>45740</v>
+      </c>
+      <c r="C11" s="51">
+        <v>3</v>
+      </c>
       <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="56"/>
       <c r="M11" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>4</v>
@@ -2224,19 +2286,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+    <row r="12" spans="1:15" ht="32.25">
+      <c r="A12" s="8">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
-        <v/>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
+        <v>14</v>
+      </c>
+      <c r="B12" s="46">
+        <v>45747</v>
+      </c>
+      <c r="C12" s="47">
+        <v>3</v>
+      </c>
       <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="55"/>
+      <c r="E12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>27</v>
+      </c>
       <c r="M12" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>5</v>
@@ -2245,19 +2317,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="str">
+    <row r="13" spans="1:15" ht="16.5">
+      <c r="A13" s="16">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v/>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="56"/>
+        <v>14</v>
+      </c>
+      <c r="B13" s="50">
+        <v>45752</v>
+      </c>
+      <c r="C13" s="51">
+        <v>4</v>
+      </c>
+      <c r="D13" s="52">
+        <v>15</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>30</v>
+      </c>
       <c r="M13" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>6</v>
@@ -2266,19 +2350,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="str">
+    <row r="14" spans="1:15" ht="32.25">
+      <c r="A14" s="8">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v/>
-      </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
+        <v>15</v>
+      </c>
+      <c r="B14" s="46">
+        <v>45754</v>
+      </c>
+      <c r="C14" s="47">
+        <v>3</v>
+      </c>
       <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="55"/>
+      <c r="E14" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>33</v>
+      </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>7</v>
@@ -2287,19 +2381,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="str">
+    <row r="15" spans="1:15" ht="32.25">
+      <c r="A15" s="16">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
-        <v/>
-      </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="56"/>
+        <v>15</v>
+      </c>
+      <c r="B15" s="50">
+        <v>45758</v>
+      </c>
+      <c r="C15" s="51">
+        <v>1</v>
+      </c>
+      <c r="D15" s="52">
+        <v>15</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>36</v>
+      </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>8</v>
@@ -2308,22 +2414,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="str">
+    <row r="16" spans="1:15" ht="32.25">
+      <c r="A16" s="8">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="46"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="46">
+        <v>45758</v>
+      </c>
       <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="36"/>
+      <c r="D16" s="48">
+        <v>15</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>38</v>
+      </c>
       <c r="G16" s="55"/>
       <c r="O16">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="16" t="str">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
         <v/>
@@ -2338,7 +2452,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="8" t="str">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
         <v/>
@@ -2353,7 +2467,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="16" t="str">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
         <v/>
@@ -2368,7 +2482,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="8" t="str">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
         <v/>
@@ -2380,7 +2494,7 @@
       <c r="F20" s="36"/>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="16" t="str">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
         <v/>
@@ -2392,7 +2506,7 @@
       <c r="F21" s="36"/>
       <c r="G21" s="56"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="8" t="str">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
         <v/>
@@ -2404,7 +2518,7 @@
       <c r="F22" s="36"/>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="16" t="str">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
         <v/>
@@ -2416,7 +2530,7 @@
       <c r="F23" s="36"/>
       <c r="G23" s="56"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="8" t="str">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
         <v/>
@@ -2428,7 +2542,7 @@
       <c r="F24" s="36"/>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="16" t="str">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
         <v/>
@@ -2440,7 +2554,7 @@
       <c r="F25" s="36"/>
       <c r="G25" s="56"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="8" t="str">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
         <v/>
@@ -2452,7 +2566,7 @@
       <c r="F26" s="36"/>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="16" t="str">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
         <v/>
@@ -2464,7 +2578,7 @@
       <c r="F27" s="36"/>
       <c r="G27" s="56"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="8" t="str">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
         <v/>
@@ -2476,7 +2590,7 @@
       <c r="F28" s="35"/>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="16" t="str">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
         <v/>
@@ -2488,7 +2602,7 @@
       <c r="F29" s="35"/>
       <c r="G29" s="56"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="8" t="str">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
         <v/>
@@ -2500,7 +2614,7 @@
       <c r="F30" s="36"/>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="16" t="str">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
         <v/>
@@ -2512,7 +2626,7 @@
       <c r="F31" s="35"/>
       <c r="G31" s="56"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="8" t="str">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
         <v/>
@@ -2524,7 +2638,7 @@
       <c r="F32" s="36"/>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="16" t="str">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
         <v/>
@@ -2536,7 +2650,7 @@
       <c r="F33" s="35"/>
       <c r="G33" s="56"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="8" t="str">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
         <v/>
@@ -2548,7 +2662,7 @@
       <c r="F34" s="35"/>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="16" t="str">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
         <v/>
@@ -2560,7 +2674,7 @@
       <c r="F35" s="36"/>
       <c r="G35" s="56"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="8" t="str">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
         <v/>
@@ -2572,7 +2686,7 @@
       <c r="F36" s="35"/>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="16" t="str">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
         <v/>
@@ -2584,7 +2698,7 @@
       <c r="F37" s="35"/>
       <c r="G37" s="56"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="8" t="str">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
         <v/>
@@ -2596,7 +2710,7 @@
       <c r="F38" s="35"/>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="16" t="str">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
         <v/>
@@ -2608,7 +2722,7 @@
       <c r="F39" s="35"/>
       <c r="G39" s="56"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="8" t="str">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
         <v/>
@@ -2620,7 +2734,7 @@
       <c r="F40" s="35"/>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="16" t="str">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
         <v/>
@@ -2632,7 +2746,7 @@
       <c r="F41" s="35"/>
       <c r="G41" s="56"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="8" t="str">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
         <v/>
@@ -2644,7 +2758,7 @@
       <c r="F42" s="35"/>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="16" t="str">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
         <v/>
@@ -2656,7 +2770,7 @@
       <c r="F43" s="35"/>
       <c r="G43" s="56"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="8" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
         <v/>
@@ -2668,7 +2782,7 @@
       <c r="F44" s="35"/>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="16" t="str">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
         <v/>
@@ -2680,7 +2794,7 @@
       <c r="F45" s="35"/>
       <c r="G45" s="56"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="8" t="str">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
         <v/>
@@ -2692,7 +2806,7 @@
       <c r="F46" s="35"/>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="16" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
         <v/>
@@ -2704,7 +2818,7 @@
       <c r="F47" s="35"/>
       <c r="G47" s="56"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="8" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
         <v/>
@@ -2716,7 +2830,7 @@
       <c r="F48" s="35"/>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="16" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B49))</f>
         <v/>
@@ -2728,7 +2842,7 @@
       <c r="F49" s="35"/>
       <c r="G49" s="56"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="8" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B50))</f>
         <v/>
@@ -2740,7 +2854,7 @@
       <c r="F50" s="35"/>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="16" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B51))</f>
         <v/>
@@ -2752,7 +2866,7 @@
       <c r="F51" s="35"/>
       <c r="G51" s="56"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="8" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B52))</f>
         <v/>
@@ -2764,7 +2878,7 @@
       <c r="F52" s="35"/>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="16" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B53))</f>
         <v/>
@@ -2776,7 +2890,7 @@
       <c r="F53" s="35"/>
       <c r="G53" s="56"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="8" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B54))</f>
         <v/>
@@ -2788,7 +2902,7 @@
       <c r="F54" s="35"/>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="16" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B55))</f>
         <v/>
@@ -2800,7 +2914,7 @@
       <c r="F55" s="35"/>
       <c r="G55" s="56"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="8" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B56))</f>
         <v/>
@@ -2812,7 +2926,7 @@
       <c r="F56" s="15"/>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="16" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B57))</f>
         <v/>
@@ -2824,7 +2938,7 @@
       <c r="F57" s="17"/>
       <c r="G57" s="56"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="8" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B58))</f>
         <v/>
@@ -2836,7 +2950,7 @@
       <c r="F58" s="15"/>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="16" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B59))</f>
         <v/>
@@ -2848,7 +2962,7 @@
       <c r="F59" s="17"/>
       <c r="G59" s="56"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="8" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B60))</f>
         <v/>
@@ -2860,7 +2974,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="16" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B61))</f>
         <v/>
@@ -2872,7 +2986,7 @@
       <c r="F61" s="17"/>
       <c r="G61" s="56"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="8" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B62))</f>
         <v/>
@@ -2884,7 +2998,7 @@
       <c r="F62" s="15"/>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="16" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B63))</f>
         <v/>
@@ -2896,7 +3010,7 @@
       <c r="F63" s="17"/>
       <c r="G63" s="56"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="8" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B64))</f>
         <v/>
@@ -2908,7 +3022,7 @@
       <c r="F64" s="15"/>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="16" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B65))</f>
         <v/>
@@ -2920,7 +3034,7 @@
       <c r="F65" s="17"/>
       <c r="G65" s="56"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="8" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B66))</f>
         <v/>
@@ -2932,7 +3046,7 @@
       <c r="F66" s="15"/>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="16" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B67))</f>
         <v/>
@@ -2944,7 +3058,7 @@
       <c r="F67" s="17"/>
       <c r="G67" s="56"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="8" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B68))</f>
         <v/>
@@ -2956,7 +3070,7 @@
       <c r="F68" s="15"/>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="16" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B69))</f>
         <v/>
@@ -2968,7 +3082,7 @@
       <c r="F69" s="17"/>
       <c r="G69" s="56"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="8" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B70))</f>
         <v/>
@@ -2980,7 +3094,7 @@
       <c r="F70" s="15"/>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="16" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B71))</f>
         <v/>
@@ -2992,7 +3106,7 @@
       <c r="F71" s="17"/>
       <c r="G71" s="56"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="8" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B72))</f>
         <v/>
@@ -3004,7 +3118,7 @@
       <c r="F72" s="15"/>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="16" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B73))</f>
         <v/>
@@ -3016,7 +3130,7 @@
       <c r="F73" s="17"/>
       <c r="G73" s="56"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="8" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B74))</f>
         <v/>
@@ -3028,7 +3142,7 @@
       <c r="F74" s="15"/>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="16" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B75))</f>
         <v/>
@@ -3040,7 +3154,7 @@
       <c r="F75" s="17"/>
       <c r="G75" s="56"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="8" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B76))</f>
         <v/>
@@ -3052,7 +3166,7 @@
       <c r="F76" s="15"/>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="16" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B77))</f>
         <v/>
@@ -3064,7 +3178,7 @@
       <c r="F77" s="17"/>
       <c r="G77" s="56"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="8" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B78))</f>
         <v/>
@@ -3076,7 +3190,7 @@
       <c r="F78" s="15"/>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="16" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B79))</f>
         <v/>
@@ -3088,7 +3202,7 @@
       <c r="F79" s="17"/>
       <c r="G79" s="56"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="8" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B80))</f>
         <v/>
@@ -3100,7 +3214,7 @@
       <c r="F80" s="15"/>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="16" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B81))</f>
         <v/>
@@ -3112,7 +3226,7 @@
       <c r="F81" s="17"/>
       <c r="G81" s="56"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="8" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B82))</f>
         <v/>
@@ -3124,7 +3238,7 @@
       <c r="F82" s="15"/>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="16" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B83))</f>
         <v/>
@@ -3136,7 +3250,7 @@
       <c r="F83" s="17"/>
       <c r="G83" s="56"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="8" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B84))</f>
         <v/>
@@ -3148,7 +3262,7 @@
       <c r="F84" s="15"/>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="16" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B85))</f>
         <v/>
@@ -3160,7 +3274,7 @@
       <c r="F85" s="17"/>
       <c r="G85" s="56"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="8" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B86))</f>
         <v/>
@@ -3172,7 +3286,7 @@
       <c r="F86" s="15"/>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="16" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B87))</f>
         <v/>
@@ -3184,7 +3298,7 @@
       <c r="F87" s="17"/>
       <c r="G87" s="56"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="8" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B88))</f>
         <v/>
@@ -3196,7 +3310,7 @@
       <c r="F88" s="15"/>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="16" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B89))</f>
         <v/>
@@ -3208,7 +3322,7 @@
       <c r="F89" s="17"/>
       <c r="G89" s="56"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="8" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B90))</f>
         <v/>
@@ -3220,7 +3334,7 @@
       <c r="F90" s="15"/>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="16" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B91))</f>
         <v/>
@@ -3232,7 +3346,7 @@
       <c r="F91" s="17"/>
       <c r="G91" s="56"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="8" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B92))</f>
         <v/>
@@ -3244,7 +3358,7 @@
       <c r="F92" s="15"/>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="16" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B93))</f>
         <v/>
@@ -3256,7 +3370,7 @@
       <c r="F93" s="17"/>
       <c r="G93" s="56"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="8" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B94))</f>
         <v/>
@@ -3268,7 +3382,7 @@
       <c r="F94" s="15"/>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="16" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B95))</f>
         <v/>
@@ -3280,7 +3394,7 @@
       <c r="F95" s="17"/>
       <c r="G95" s="56"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="8" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B96))</f>
         <v/>
@@ -3292,7 +3406,7 @@
       <c r="F96" s="15"/>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="16" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B97))</f>
         <v/>
@@ -3304,7 +3418,7 @@
       <c r="F97" s="17"/>
       <c r="G97" s="56"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="8" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B98))</f>
         <v/>
@@ -3316,7 +3430,7 @@
       <c r="F98" s="15"/>
       <c r="G98" s="55"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="16" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B99))</f>
         <v/>
@@ -3328,7 +3442,7 @@
       <c r="F99" s="17"/>
       <c r="G99" s="56"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="8" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B100))</f>
         <v/>
@@ -3340,7 +3454,7 @@
       <c r="F100" s="15"/>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="16" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B101))</f>
         <v/>
@@ -3352,7 +3466,7 @@
       <c r="F101" s="17"/>
       <c r="G101" s="56"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="8" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B102))</f>
         <v/>
@@ -3364,7 +3478,7 @@
       <c r="F102" s="15"/>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="16" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B103))</f>
         <v/>
@@ -3376,7 +3490,7 @@
       <c r="F103" s="17"/>
       <c r="G103" s="56"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="8" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B104))</f>
         <v/>
@@ -3388,7 +3502,7 @@
       <c r="F104" s="15"/>
       <c r="G104" s="55"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="16" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B105))</f>
         <v/>
@@ -3400,7 +3514,7 @@
       <c r="F105" s="17"/>
       <c r="G105" s="56"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="8" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B106))</f>
         <v/>
@@ -3412,7 +3526,7 @@
       <c r="F106" s="15"/>
       <c r="G106" s="55"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="16" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B107))</f>
         <v/>
@@ -3424,7 +3538,7 @@
       <c r="F107" s="17"/>
       <c r="G107" s="56"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="8" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B108))</f>
         <v/>
@@ -3436,7 +3550,7 @@
       <c r="F108" s="15"/>
       <c r="G108" s="55"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="16" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B109))</f>
         <v/>
@@ -3448,7 +3562,7 @@
       <c r="F109" s="17"/>
       <c r="G109" s="56"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="8" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B110))</f>
         <v/>
@@ -3460,7 +3574,7 @@
       <c r="F110" s="15"/>
       <c r="G110" s="55"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="16" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B111))</f>
         <v/>
@@ -3472,7 +3586,7 @@
       <c r="F111" s="17"/>
       <c r="G111" s="56"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="8" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B112))</f>
         <v/>
@@ -3484,7 +3598,7 @@
       <c r="F112" s="15"/>
       <c r="G112" s="55"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="16" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B113))</f>
         <v/>
@@ -3496,7 +3610,7 @@
       <c r="F113" s="17"/>
       <c r="G113" s="56"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="8" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B114))</f>
         <v/>
@@ -3508,7 +3622,7 @@
       <c r="F114" s="15"/>
       <c r="G114" s="55"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="16" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B115))</f>
         <v/>
@@ -3520,7 +3634,7 @@
       <c r="F115" s="17"/>
       <c r="G115" s="56"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="8" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B116))</f>
         <v/>
@@ -3532,7 +3646,7 @@
       <c r="F116" s="15"/>
       <c r="G116" s="55"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="16" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B117))</f>
         <v/>
@@ -3544,7 +3658,7 @@
       <c r="F117" s="17"/>
       <c r="G117" s="56"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="8" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B118))</f>
         <v/>
@@ -3556,7 +3670,7 @@
       <c r="F118" s="15"/>
       <c r="G118" s="55"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="16" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B119))</f>
         <v/>
@@ -3568,7 +3682,7 @@
       <c r="F119" s="17"/>
       <c r="G119" s="56"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="8" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B120))</f>
         <v/>
@@ -3580,7 +3694,7 @@
       <c r="F120" s="15"/>
       <c r="G120" s="55"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="16" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B121))</f>
         <v/>
@@ -3592,7 +3706,7 @@
       <c r="F121" s="17"/>
       <c r="G121" s="56"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="8" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B122))</f>
         <v/>
@@ -3604,7 +3718,7 @@
       <c r="F122" s="15"/>
       <c r="G122" s="55"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="16" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B123))</f>
         <v/>
@@ -3616,7 +3730,7 @@
       <c r="F123" s="17"/>
       <c r="G123" s="56"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="8" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B124))</f>
         <v/>
@@ -3628,7 +3742,7 @@
       <c r="F124" s="15"/>
       <c r="G124" s="55"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="16" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B125))</f>
         <v/>
@@ -3640,7 +3754,7 @@
       <c r="F125" s="17"/>
       <c r="G125" s="56"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="8" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B126))</f>
         <v/>
@@ -3652,7 +3766,7 @@
       <c r="F126" s="15"/>
       <c r="G126" s="55"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="16" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B127))</f>
         <v/>
@@ -3664,7 +3778,7 @@
       <c r="F127" s="17"/>
       <c r="G127" s="56"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="8" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B128))</f>
         <v/>
@@ -3676,7 +3790,7 @@
       <c r="F128" s="15"/>
       <c r="G128" s="55"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="16" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B129))</f>
         <v/>
@@ -3688,7 +3802,7 @@
       <c r="F129" s="17"/>
       <c r="G129" s="56"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="8" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B130))</f>
         <v/>
@@ -3700,7 +3814,7 @@
       <c r="F130" s="15"/>
       <c r="G130" s="55"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="16" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B131))</f>
         <v/>
@@ -3712,7 +3826,7 @@
       <c r="F131" s="17"/>
       <c r="G131" s="56"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="8" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B132))</f>
         <v/>
@@ -3724,7 +3838,7 @@
       <c r="F132" s="15"/>
       <c r="G132" s="55"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="16" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B133))</f>
         <v/>
@@ -3736,7 +3850,7 @@
       <c r="F133" s="17"/>
       <c r="G133" s="56"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="8" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B134))</f>
         <v/>
@@ -3748,7 +3862,7 @@
       <c r="F134" s="15"/>
       <c r="G134" s="55"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="16" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B135))</f>
         <v/>
@@ -3760,7 +3874,7 @@
       <c r="F135" s="17"/>
       <c r="G135" s="56"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="8" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B136))</f>
         <v/>
@@ -3772,7 +3886,7 @@
       <c r="F136" s="15"/>
       <c r="G136" s="55"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="16" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B137))</f>
         <v/>
@@ -3784,7 +3898,7 @@
       <c r="F137" s="17"/>
       <c r="G137" s="56"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="8" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B138))</f>
         <v/>
@@ -3796,7 +3910,7 @@
       <c r="F138" s="15"/>
       <c r="G138" s="55"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="16" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B139))</f>
         <v/>
@@ -3808,7 +3922,7 @@
       <c r="F139" s="17"/>
       <c r="G139" s="56"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="8" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B140))</f>
         <v/>
@@ -3820,7 +3934,7 @@
       <c r="F140" s="15"/>
       <c r="G140" s="55"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="16" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B141))</f>
         <v/>
@@ -3832,7 +3946,7 @@
       <c r="F141" s="17"/>
       <c r="G141" s="56"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="8" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B142))</f>
         <v/>
@@ -3844,7 +3958,7 @@
       <c r="F142" s="15"/>
       <c r="G142" s="55"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="16" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B143))</f>
         <v/>
@@ -3856,7 +3970,7 @@
       <c r="F143" s="17"/>
       <c r="G143" s="56"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="8" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B144))</f>
         <v/>
@@ -3868,7 +3982,7 @@
       <c r="F144" s="15"/>
       <c r="G144" s="55"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="16" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B145))</f>
         <v/>
@@ -3880,7 +3994,7 @@
       <c r="F145" s="17"/>
       <c r="G145" s="56"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="8" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B146))</f>
         <v/>
@@ -3892,7 +4006,7 @@
       <c r="F146" s="15"/>
       <c r="G146" s="55"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="16" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B147))</f>
         <v/>
@@ -3904,7 +4018,7 @@
       <c r="F147" s="17"/>
       <c r="G147" s="56"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="8" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B148))</f>
         <v/>
@@ -3916,7 +4030,7 @@
       <c r="F148" s="15"/>
       <c r="G148" s="55"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="16" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B149))</f>
         <v/>
@@ -3928,7 +4042,7 @@
       <c r="F149" s="17"/>
       <c r="G149" s="56"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="8" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B150))</f>
         <v/>
@@ -3940,7 +4054,7 @@
       <c r="F150" s="15"/>
       <c r="G150" s="55"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="16" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B151))</f>
         <v/>
@@ -3952,7 +4066,7 @@
       <c r="F151" s="17"/>
       <c r="G151" s="56"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="8" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B152))</f>
         <v/>
@@ -3964,7 +4078,7 @@
       <c r="F152" s="15"/>
       <c r="G152" s="55"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="16" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B153))</f>
         <v/>
@@ -3976,7 +4090,7 @@
       <c r="F153" s="17"/>
       <c r="G153" s="56"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="8" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B154))</f>
         <v/>
@@ -3988,7 +4102,7 @@
       <c r="F154" s="15"/>
       <c r="G154" s="55"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="16" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B155))</f>
         <v/>
@@ -4000,7 +4114,7 @@
       <c r="F155" s="17"/>
       <c r="G155" s="56"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="8" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B156))</f>
         <v/>
@@ -4012,7 +4126,7 @@
       <c r="F156" s="15"/>
       <c r="G156" s="55"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="16" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B157))</f>
         <v/>
@@ -4024,7 +4138,7 @@
       <c r="F157" s="17"/>
       <c r="G157" s="56"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="8" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B158))</f>
         <v/>
@@ -4036,7 +4150,7 @@
       <c r="F158" s="15"/>
       <c r="G158" s="55"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="16" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B159))</f>
         <v/>
@@ -4048,7 +4162,7 @@
       <c r="F159" s="17"/>
       <c r="G159" s="56"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="8" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B160))</f>
         <v/>
@@ -4060,7 +4174,7 @@
       <c r="F160" s="15"/>
       <c r="G160" s="55"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="16" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B161))</f>
         <v/>
@@ -4072,7 +4186,7 @@
       <c r="F161" s="17"/>
       <c r="G161" s="56"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="8" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B162))</f>
         <v/>
@@ -4084,7 +4198,7 @@
       <c r="F162" s="15"/>
       <c r="G162" s="55"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="16" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B163))</f>
         <v/>
@@ -4096,7 +4210,7 @@
       <c r="F163" s="17"/>
       <c r="G163" s="56"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="8" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B164))</f>
         <v/>
@@ -4108,7 +4222,7 @@
       <c r="F164" s="15"/>
       <c r="G164" s="55"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="16" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B165))</f>
         <v/>
@@ -4120,7 +4234,7 @@
       <c r="F165" s="17"/>
       <c r="G165" s="56"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="8" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B166))</f>
         <v/>
@@ -4132,7 +4246,7 @@
       <c r="F166" s="15"/>
       <c r="G166" s="55"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="16" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B167))</f>
         <v/>
@@ -4144,7 +4258,7 @@
       <c r="F167" s="17"/>
       <c r="G167" s="56"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="8" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B168))</f>
         <v/>
@@ -4156,7 +4270,7 @@
       <c r="F168" s="15"/>
       <c r="G168" s="55"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="16" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B169))</f>
         <v/>
@@ -4168,7 +4282,7 @@
       <c r="F169" s="17"/>
       <c r="G169" s="56"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="8" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B170))</f>
         <v/>
@@ -4180,7 +4294,7 @@
       <c r="F170" s="15"/>
       <c r="G170" s="55"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="16" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B171))</f>
         <v/>
@@ -4192,7 +4306,7 @@
       <c r="F171" s="17"/>
       <c r="G171" s="56"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="8" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B172))</f>
         <v/>
@@ -4204,7 +4318,7 @@
       <c r="F172" s="15"/>
       <c r="G172" s="55"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="16" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B173))</f>
         <v/>
@@ -4216,7 +4330,7 @@
       <c r="F173" s="17"/>
       <c r="G173" s="56"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="8" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B174))</f>
         <v/>
@@ -4228,7 +4342,7 @@
       <c r="F174" s="15"/>
       <c r="G174" s="55"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="16" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B175))</f>
         <v/>
@@ -4240,7 +4354,7 @@
       <c r="F175" s="17"/>
       <c r="G175" s="56"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="8" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B176))</f>
         <v/>
@@ -4252,7 +4366,7 @@
       <c r="F176" s="15"/>
       <c r="G176" s="55"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="16" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B177))</f>
         <v/>
@@ -4264,7 +4378,7 @@
       <c r="F177" s="17"/>
       <c r="G177" s="56"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="8" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B178))</f>
         <v/>
@@ -4276,7 +4390,7 @@
       <c r="F178" s="15"/>
       <c r="G178" s="55"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="16" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B179))</f>
         <v/>
@@ -4288,7 +4402,7 @@
       <c r="F179" s="17"/>
       <c r="G179" s="56"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="8" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B180))</f>
         <v/>
@@ -4300,7 +4414,7 @@
       <c r="F180" s="15"/>
       <c r="G180" s="55"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="16" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B181))</f>
         <v/>
@@ -4312,7 +4426,7 @@
       <c r="F181" s="17"/>
       <c r="G181" s="56"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="8" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B182))</f>
         <v/>
@@ -4324,7 +4438,7 @@
       <c r="F182" s="15"/>
       <c r="G182" s="55"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="16" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B183))</f>
         <v/>
@@ -4336,7 +4450,7 @@
       <c r="F183" s="17"/>
       <c r="G183" s="56"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="8" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B184))</f>
         <v/>
@@ -4348,7 +4462,7 @@
       <c r="F184" s="15"/>
       <c r="G184" s="55"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="16" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B185))</f>
         <v/>
@@ -4360,7 +4474,7 @@
       <c r="F185" s="17"/>
       <c r="G185" s="56"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="8" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B186))</f>
         <v/>
@@ -4372,7 +4486,7 @@
       <c r="F186" s="15"/>
       <c r="G186" s="55"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="16" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B187))</f>
         <v/>
@@ -4384,7 +4498,7 @@
       <c r="F187" s="17"/>
       <c r="G187" s="56"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="8" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B188))</f>
         <v/>
@@ -4396,7 +4510,7 @@
       <c r="F188" s="15"/>
       <c r="G188" s="55"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" s="16" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B189))</f>
         <v/>
@@ -4408,7 +4522,7 @@
       <c r="F189" s="17"/>
       <c r="G189" s="56"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="8" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B190))</f>
         <v/>
@@ -4420,7 +4534,7 @@
       <c r="F190" s="15"/>
       <c r="G190" s="55"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="16" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B191))</f>
         <v/>
@@ -4432,7 +4546,7 @@
       <c r="F191" s="17"/>
       <c r="G191" s="56"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="8" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B192))</f>
         <v/>
@@ -4444,7 +4558,7 @@
       <c r="F192" s="15"/>
       <c r="G192" s="55"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="16" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B193))</f>
         <v/>
@@ -4456,7 +4570,7 @@
       <c r="F193" s="17"/>
       <c r="G193" s="56"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="8" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B194))</f>
         <v/>
@@ -4468,7 +4582,7 @@
       <c r="F194" s="15"/>
       <c r="G194" s="55"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" s="16" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B195))</f>
         <v/>
@@ -4480,7 +4594,7 @@
       <c r="F195" s="17"/>
       <c r="G195" s="56"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196" s="8" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B196))</f>
         <v/>
@@ -4492,7 +4606,7 @@
       <c r="F196" s="15"/>
       <c r="G196" s="55"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" s="16" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B197))</f>
         <v/>
@@ -4504,7 +4618,7 @@
       <c r="F197" s="17"/>
       <c r="G197" s="56"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="8" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B198))</f>
         <v/>
@@ -4516,7 +4630,7 @@
       <c r="F198" s="15"/>
       <c r="G198" s="55"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" s="16" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B199))</f>
         <v/>
@@ -4528,7 +4642,7 @@
       <c r="F199" s="17"/>
       <c r="G199" s="56"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" s="8" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B200))</f>
         <v/>
@@ -4540,7 +4654,7 @@
       <c r="F200" s="15"/>
       <c r="G200" s="55"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" s="16" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B201))</f>
         <v/>
@@ -4552,7 +4666,7 @@
       <c r="F201" s="17"/>
       <c r="G201" s="56"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="8" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B202))</f>
         <v/>
@@ -4564,7 +4678,7 @@
       <c r="F202" s="15"/>
       <c r="G202" s="55"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" s="16" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B203))</f>
         <v/>
@@ -4576,7 +4690,7 @@
       <c r="F203" s="17"/>
       <c r="G203" s="56"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" s="8" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B204))</f>
         <v/>
@@ -4588,7 +4702,7 @@
       <c r="F204" s="15"/>
       <c r="G204" s="55"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" s="16" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B205))</f>
         <v/>
@@ -4600,7 +4714,7 @@
       <c r="F205" s="17"/>
       <c r="G205" s="56"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" s="8" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B206))</f>
         <v/>
@@ -4612,7 +4726,7 @@
       <c r="F206" s="15"/>
       <c r="G206" s="55"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" s="16" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B207))</f>
         <v/>
@@ -4624,7 +4738,7 @@
       <c r="F207" s="17"/>
       <c r="G207" s="56"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" s="8" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B208))</f>
         <v/>
@@ -4636,7 +4750,7 @@
       <c r="F208" s="15"/>
       <c r="G208" s="55"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" s="16" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B209))</f>
         <v/>
@@ -4648,7 +4762,7 @@
       <c r="F209" s="17"/>
       <c r="G209" s="56"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" s="8" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B210))</f>
         <v/>
@@ -4660,7 +4774,7 @@
       <c r="F210" s="15"/>
       <c r="G210" s="55"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" s="16" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B211))</f>
         <v/>
@@ -4672,7 +4786,7 @@
       <c r="F211" s="17"/>
       <c r="G211" s="56"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" s="8" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B212))</f>
         <v/>
@@ -4684,7 +4798,7 @@
       <c r="F212" s="15"/>
       <c r="G212" s="55"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="16" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B213))</f>
         <v/>
@@ -4696,7 +4810,7 @@
       <c r="F213" s="17"/>
       <c r="G213" s="56"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="8" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B214))</f>
         <v/>
@@ -4708,7 +4822,7 @@
       <c r="F214" s="15"/>
       <c r="G214" s="55"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" s="16" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B215))</f>
         <v/>
@@ -4720,7 +4834,7 @@
       <c r="F215" s="17"/>
       <c r="G215" s="56"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="8" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B216))</f>
         <v/>
@@ -4732,7 +4846,7 @@
       <c r="F216" s="15"/>
       <c r="G216" s="55"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="16" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B217))</f>
         <v/>
@@ -4744,7 +4858,7 @@
       <c r="F217" s="17"/>
       <c r="G217" s="56"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" s="8" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B218))</f>
         <v/>
@@ -4756,7 +4870,7 @@
       <c r="F218" s="15"/>
       <c r="G218" s="55"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" s="16" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B219))</f>
         <v/>
@@ -4768,7 +4882,7 @@
       <c r="F219" s="17"/>
       <c r="G219" s="56"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" s="8" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B220))</f>
         <v/>
@@ -4780,7 +4894,7 @@
       <c r="F220" s="15"/>
       <c r="G220" s="55"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" s="16" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B221))</f>
         <v/>
@@ -4792,7 +4906,7 @@
       <c r="F221" s="17"/>
       <c r="G221" s="56"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" s="8" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B222))</f>
         <v/>
@@ -4804,7 +4918,7 @@
       <c r="F222" s="15"/>
       <c r="G222" s="55"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" s="16" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B223))</f>
         <v/>
@@ -4816,7 +4930,7 @@
       <c r="F223" s="17"/>
       <c r="G223" s="56"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" s="8" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B224))</f>
         <v/>
@@ -4828,7 +4942,7 @@
       <c r="F224" s="15"/>
       <c r="G224" s="55"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" s="16" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B225))</f>
         <v/>
@@ -4840,7 +4954,7 @@
       <c r="F225" s="17"/>
       <c r="G225" s="56"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" s="8" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B226))</f>
         <v/>
@@ -4852,7 +4966,7 @@
       <c r="F226" s="15"/>
       <c r="G226" s="55"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" s="16" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B227))</f>
         <v/>
@@ -4864,7 +4978,7 @@
       <c r="F227" s="17"/>
       <c r="G227" s="56"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" s="8" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B228))</f>
         <v/>
@@ -4876,7 +4990,7 @@
       <c r="F228" s="15"/>
       <c r="G228" s="55"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" s="16" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B229))</f>
         <v/>
@@ -4888,7 +5002,7 @@
       <c r="F229" s="17"/>
       <c r="G229" s="56"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" s="8" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B230))</f>
         <v/>
@@ -4900,7 +5014,7 @@
       <c r="F230" s="15"/>
       <c r="G230" s="55"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" s="16" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B231))</f>
         <v/>
@@ -4912,7 +5026,7 @@
       <c r="F231" s="17"/>
       <c r="G231" s="56"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" s="8" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B232))</f>
         <v/>
@@ -4924,7 +5038,7 @@
       <c r="F232" s="15"/>
       <c r="G232" s="55"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233" s="16" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B233))</f>
         <v/>
@@ -4936,7 +5050,7 @@
       <c r="F233" s="17"/>
       <c r="G233" s="56"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" s="8" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B234))</f>
         <v/>
@@ -4948,7 +5062,7 @@
       <c r="F234" s="15"/>
       <c r="G234" s="55"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" s="16" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B235))</f>
         <v/>
@@ -4960,7 +5074,7 @@
       <c r="F235" s="17"/>
       <c r="G235" s="56"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" s="8" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B236))</f>
         <v/>
@@ -4972,7 +5086,7 @@
       <c r="F236" s="15"/>
       <c r="G236" s="55"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" s="16" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B237))</f>
         <v/>
@@ -4984,7 +5098,7 @@
       <c r="F237" s="17"/>
       <c r="G237" s="56"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" s="8" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B238))</f>
         <v/>
@@ -4996,7 +5110,7 @@
       <c r="F238" s="15"/>
       <c r="G238" s="55"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" s="16" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B239))</f>
         <v/>
@@ -5008,7 +5122,7 @@
       <c r="F239" s="17"/>
       <c r="G239" s="56"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" s="8" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B240))</f>
         <v/>
@@ -5020,7 +5134,7 @@
       <c r="F240" s="15"/>
       <c r="G240" s="55"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" s="16" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B241))</f>
         <v/>
@@ -5032,7 +5146,7 @@
       <c r="F241" s="17"/>
       <c r="G241" s="56"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" s="8" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B242))</f>
         <v/>
@@ -5044,7 +5158,7 @@
       <c r="F242" s="15"/>
       <c r="G242" s="55"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" s="16" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B243))</f>
         <v/>
@@ -5056,7 +5170,7 @@
       <c r="F243" s="17"/>
       <c r="G243" s="56"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" s="8" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B244))</f>
         <v/>
@@ -5068,7 +5182,7 @@
       <c r="F244" s="15"/>
       <c r="G244" s="55"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" s="16" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B245))</f>
         <v/>
@@ -5080,7 +5194,7 @@
       <c r="F245" s="17"/>
       <c r="G245" s="56"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" s="8" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B246))</f>
         <v/>
@@ -5092,7 +5206,7 @@
       <c r="F246" s="15"/>
       <c r="G246" s="55"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" s="16" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B247))</f>
         <v/>
@@ -5104,7 +5218,7 @@
       <c r="F247" s="17"/>
       <c r="G247" s="56"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" s="8" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B248))</f>
         <v/>
@@ -5116,7 +5230,7 @@
       <c r="F248" s="15"/>
       <c r="G248" s="55"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" s="16" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B249))</f>
         <v/>
@@ -5128,7 +5242,7 @@
       <c r="F249" s="17"/>
       <c r="G249" s="56"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" s="8" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B250))</f>
         <v/>
@@ -5140,7 +5254,7 @@
       <c r="F250" s="15"/>
       <c r="G250" s="55"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" s="16" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B251))</f>
         <v/>
@@ -5152,7 +5266,7 @@
       <c r="F251" s="17"/>
       <c r="G251" s="56"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" s="8" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B252))</f>
         <v/>
@@ -5164,7 +5278,7 @@
       <c r="F252" s="15"/>
       <c r="G252" s="55"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" s="16" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B253))</f>
         <v/>
@@ -5176,7 +5290,7 @@
       <c r="F253" s="17"/>
       <c r="G253" s="56"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" s="8" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B254))</f>
         <v/>
@@ -5188,7 +5302,7 @@
       <c r="F254" s="15"/>
       <c r="G254" s="55"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" s="16" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B255))</f>
         <v/>
@@ -5200,7 +5314,7 @@
       <c r="F255" s="17"/>
       <c r="G255" s="56"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" s="8" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B256))</f>
         <v/>
@@ -5212,7 +5326,7 @@
       <c r="F256" s="15"/>
       <c r="G256" s="55"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" s="16" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B257))</f>
         <v/>
@@ -5224,7 +5338,7 @@
       <c r="F257" s="17"/>
       <c r="G257" s="56"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" s="8" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B258))</f>
         <v/>
@@ -5236,7 +5350,7 @@
       <c r="F258" s="15"/>
       <c r="G258" s="55"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" s="16" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B259))</f>
         <v/>
@@ -5248,7 +5362,7 @@
       <c r="F259" s="17"/>
       <c r="G259" s="56"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" s="8" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B260))</f>
         <v/>
@@ -5260,7 +5374,7 @@
       <c r="F260" s="15"/>
       <c r="G260" s="55"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" s="16" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B261))</f>
         <v/>
@@ -5272,7 +5386,7 @@
       <c r="F261" s="17"/>
       <c r="G261" s="56"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" s="8" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B262))</f>
         <v/>
@@ -5284,7 +5398,7 @@
       <c r="F262" s="15"/>
       <c r="G262" s="55"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" s="16" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B263))</f>
         <v/>
@@ -5296,7 +5410,7 @@
       <c r="F263" s="17"/>
       <c r="G263" s="56"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" s="8" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B264))</f>
         <v/>
@@ -5308,7 +5422,7 @@
       <c r="F264" s="15"/>
       <c r="G264" s="55"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" s="16" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B265))</f>
         <v/>
@@ -5320,7 +5434,7 @@
       <c r="F265" s="17"/>
       <c r="G265" s="56"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" s="8" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B266))</f>
         <v/>
@@ -5332,7 +5446,7 @@
       <c r="F266" s="15"/>
       <c r="G266" s="55"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" s="16" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B267))</f>
         <v/>
@@ -5344,7 +5458,7 @@
       <c r="F267" s="17"/>
       <c r="G267" s="56"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" s="8" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B268))</f>
         <v/>
@@ -5356,7 +5470,7 @@
       <c r="F268" s="15"/>
       <c r="G268" s="55"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" s="16" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B269))</f>
         <v/>
@@ -5368,7 +5482,7 @@
       <c r="F269" s="17"/>
       <c r="G269" s="56"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" s="8" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B270))</f>
         <v/>
@@ -5380,7 +5494,7 @@
       <c r="F270" s="15"/>
       <c r="G270" s="55"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" s="16" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B271))</f>
         <v/>
@@ -5392,7 +5506,7 @@
       <c r="F271" s="17"/>
       <c r="G271" s="56"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" s="8" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B272))</f>
         <v/>
@@ -5404,7 +5518,7 @@
       <c r="F272" s="15"/>
       <c r="G272" s="55"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" s="16" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B273))</f>
         <v/>
@@ -5416,7 +5530,7 @@
       <c r="F273" s="17"/>
       <c r="G273" s="56"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" s="8" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B274))</f>
         <v/>
@@ -5428,7 +5542,7 @@
       <c r="F274" s="15"/>
       <c r="G274" s="55"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" s="16" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B275))</f>
         <v/>
@@ -5440,7 +5554,7 @@
       <c r="F275" s="17"/>
       <c r="G275" s="56"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" s="8" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B276))</f>
         <v/>
@@ -5452,7 +5566,7 @@
       <c r="F276" s="15"/>
       <c r="G276" s="55"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" s="16" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B277))</f>
         <v/>
@@ -5464,7 +5578,7 @@
       <c r="F277" s="17"/>
       <c r="G277" s="56"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" s="8" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B278))</f>
         <v/>
@@ -5476,7 +5590,7 @@
       <c r="F278" s="15"/>
       <c r="G278" s="55"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" s="16" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B279))</f>
         <v/>
@@ -5488,7 +5602,7 @@
       <c r="F279" s="17"/>
       <c r="G279" s="56"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" s="8" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B280))</f>
         <v/>
@@ -5500,7 +5614,7 @@
       <c r="F280" s="15"/>
       <c r="G280" s="55"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" s="16" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B281))</f>
         <v/>
@@ -5512,7 +5626,7 @@
       <c r="F281" s="17"/>
       <c r="G281" s="56"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" s="8" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B282))</f>
         <v/>
@@ -5524,7 +5638,7 @@
       <c r="F282" s="15"/>
       <c r="G282" s="55"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" s="16" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B283))</f>
         <v/>
@@ -5536,7 +5650,7 @@
       <c r="F283" s="17"/>
       <c r="G283" s="56"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" s="8" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B284))</f>
         <v/>
@@ -5548,7 +5662,7 @@
       <c r="F284" s="15"/>
       <c r="G284" s="55"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" s="16" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B285))</f>
         <v/>
@@ -5560,7 +5674,7 @@
       <c r="F285" s="17"/>
       <c r="G285" s="56"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" s="8" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B286))</f>
         <v/>
@@ -5572,7 +5686,7 @@
       <c r="F286" s="15"/>
       <c r="G286" s="55"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" s="16" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B287))</f>
         <v/>
@@ -5584,7 +5698,7 @@
       <c r="F287" s="17"/>
       <c r="G287" s="56"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" s="8" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B288))</f>
         <v/>
@@ -5596,7 +5710,7 @@
       <c r="F288" s="15"/>
       <c r="G288" s="55"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" s="16" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B289))</f>
         <v/>
@@ -5608,7 +5722,7 @@
       <c r="F289" s="17"/>
       <c r="G289" s="56"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" s="8" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B290))</f>
         <v/>
@@ -5620,7 +5734,7 @@
       <c r="F290" s="15"/>
       <c r="G290" s="55"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7">
       <c r="A291" s="16" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B291))</f>
         <v/>
@@ -5632,7 +5746,7 @@
       <c r="F291" s="17"/>
       <c r="G291" s="56"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7">
       <c r="A292" s="8" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B292))</f>
         <v/>
@@ -5644,7 +5758,7 @@
       <c r="F292" s="15"/>
       <c r="G292" s="55"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" s="16" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B293))</f>
         <v/>
@@ -5656,7 +5770,7 @@
       <c r="F293" s="17"/>
       <c r="G293" s="56"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" s="8" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B294))</f>
         <v/>
@@ -5668,7 +5782,7 @@
       <c r="F294" s="15"/>
       <c r="G294" s="55"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" s="16" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B295))</f>
         <v/>
@@ -5680,7 +5794,7 @@
       <c r="F295" s="17"/>
       <c r="G295" s="56"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" s="8" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B296))</f>
         <v/>
@@ -5692,7 +5806,7 @@
       <c r="F296" s="15"/>
       <c r="G296" s="55"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297" s="16" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B297))</f>
         <v/>
@@ -5704,7 +5818,7 @@
       <c r="F297" s="17"/>
       <c r="G297" s="56"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" s="8" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B298))</f>
         <v/>
@@ -5716,7 +5830,7 @@
       <c r="F298" s="15"/>
       <c r="G298" s="55"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" s="16" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B299))</f>
         <v/>
@@ -5728,7 +5842,7 @@
       <c r="F299" s="17"/>
       <c r="G299" s="56"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" s="8" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B300))</f>
         <v/>
@@ -5740,7 +5854,7 @@
       <c r="F300" s="15"/>
       <c r="G300" s="55"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" s="16" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B301))</f>
         <v/>
@@ -5752,7 +5866,7 @@
       <c r="F301" s="17"/>
       <c r="G301" s="56"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" s="8" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B302))</f>
         <v/>
@@ -5764,7 +5878,7 @@
       <c r="F302" s="15"/>
       <c r="G302" s="55"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" s="16" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B303))</f>
         <v/>
@@ -5776,7 +5890,7 @@
       <c r="F303" s="17"/>
       <c r="G303" s="56"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" s="8" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B304))</f>
         <v/>
@@ -5788,7 +5902,7 @@
       <c r="F304" s="15"/>
       <c r="G304" s="55"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" s="16" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B305))</f>
         <v/>
@@ -5800,7 +5914,7 @@
       <c r="F305" s="17"/>
       <c r="G305" s="56"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" s="8" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B306))</f>
         <v/>
@@ -5812,7 +5926,7 @@
       <c r="F306" s="15"/>
       <c r="G306" s="55"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" s="16" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B307))</f>
         <v/>
@@ -5824,7 +5938,7 @@
       <c r="F307" s="17"/>
       <c r="G307" s="56"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" s="8" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B308))</f>
         <v/>
@@ -5836,7 +5950,7 @@
       <c r="F308" s="15"/>
       <c r="G308" s="55"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" s="16" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B309))</f>
         <v/>
@@ -5848,7 +5962,7 @@
       <c r="F309" s="17"/>
       <c r="G309" s="56"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" s="8" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B310))</f>
         <v/>
@@ -5860,7 +5974,7 @@
       <c r="F310" s="15"/>
       <c r="G310" s="55"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" s="16" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B311))</f>
         <v/>
@@ -5872,7 +5986,7 @@
       <c r="F311" s="17"/>
       <c r="G311" s="56"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" s="8" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B312))</f>
         <v/>
@@ -5884,7 +5998,7 @@
       <c r="F312" s="15"/>
       <c r="G312" s="55"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" s="16" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B313))</f>
         <v/>
@@ -5896,7 +6010,7 @@
       <c r="F313" s="17"/>
       <c r="G313" s="56"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" s="8" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B314))</f>
         <v/>
@@ -5908,7 +6022,7 @@
       <c r="F314" s="15"/>
       <c r="G314" s="55"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" s="16" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B315))</f>
         <v/>
@@ -5920,7 +6034,7 @@
       <c r="F315" s="17"/>
       <c r="G315" s="56"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" s="8" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B316))</f>
         <v/>
@@ -5932,7 +6046,7 @@
       <c r="F316" s="15"/>
       <c r="G316" s="55"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" s="16" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B317))</f>
         <v/>
@@ -5944,7 +6058,7 @@
       <c r="F317" s="17"/>
       <c r="G317" s="56"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7">
       <c r="A318" s="8" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B318))</f>
         <v/>
@@ -5956,7 +6070,7 @@
       <c r="F318" s="15"/>
       <c r="G318" s="55"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7">
       <c r="A319" s="16" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B319))</f>
         <v/>
@@ -5968,7 +6082,7 @@
       <c r="F319" s="17"/>
       <c r="G319" s="56"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7">
       <c r="A320" s="8" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B320))</f>
         <v/>
@@ -5980,7 +6094,7 @@
       <c r="F320" s="15"/>
       <c r="G320" s="55"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" s="16" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B321))</f>
         <v/>
@@ -5992,7 +6106,7 @@
       <c r="F321" s="17"/>
       <c r="G321" s="56"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" s="8" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B322))</f>
         <v/>
@@ -6004,7 +6118,7 @@
       <c r="F322" s="15"/>
       <c r="G322" s="55"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7">
       <c r="A323" s="16" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B323))</f>
         <v/>
@@ -6016,7 +6130,7 @@
       <c r="F323" s="17"/>
       <c r="G323" s="56"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7">
       <c r="A324" s="8" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B324))</f>
         <v/>
@@ -6028,7 +6142,7 @@
       <c r="F324" s="15"/>
       <c r="G324" s="55"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" s="16" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B325))</f>
         <v/>
@@ -6040,7 +6154,7 @@
       <c r="F325" s="17"/>
       <c r="G325" s="56"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" s="8" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B326))</f>
         <v/>
@@ -6052,7 +6166,7 @@
       <c r="F326" s="15"/>
       <c r="G326" s="55"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7">
       <c r="A327" s="16" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B327))</f>
         <v/>
@@ -6064,7 +6178,7 @@
       <c r="F327" s="17"/>
       <c r="G327" s="56"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7">
       <c r="A328" s="8" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B328))</f>
         <v/>
@@ -6076,7 +6190,7 @@
       <c r="F328" s="15"/>
       <c r="G328" s="55"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7">
       <c r="A329" s="16" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B329))</f>
         <v/>
@@ -6088,7 +6202,7 @@
       <c r="F329" s="17"/>
       <c r="G329" s="56"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7">
       <c r="A330" s="8" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B330))</f>
         <v/>
@@ -6100,7 +6214,7 @@
       <c r="F330" s="15"/>
       <c r="G330" s="55"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" s="16" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B331))</f>
         <v/>
@@ -6112,7 +6226,7 @@
       <c r="F331" s="17"/>
       <c r="G331" s="56"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7">
       <c r="A332" s="8" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B332))</f>
         <v/>
@@ -6124,7 +6238,7 @@
       <c r="F332" s="15"/>
       <c r="G332" s="55"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7">
       <c r="A333" s="16" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B333))</f>
         <v/>
@@ -6136,7 +6250,7 @@
       <c r="F333" s="17"/>
       <c r="G333" s="56"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" s="8" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B334))</f>
         <v/>
@@ -6148,7 +6262,7 @@
       <c r="F334" s="15"/>
       <c r="G334" s="55"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" s="16" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B335))</f>
         <v/>
@@ -6160,7 +6274,7 @@
       <c r="F335" s="17"/>
       <c r="G335" s="56"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" s="8" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B336))</f>
         <v/>
@@ -6172,7 +6286,7 @@
       <c r="F336" s="15"/>
       <c r="G336" s="55"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" s="16" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B337))</f>
         <v/>
@@ -6184,7 +6298,7 @@
       <c r="F337" s="17"/>
       <c r="G337" s="56"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" s="8" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B338))</f>
         <v/>
@@ -6196,7 +6310,7 @@
       <c r="F338" s="15"/>
       <c r="G338" s="55"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" s="16" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B339))</f>
         <v/>
@@ -6208,7 +6322,7 @@
       <c r="F339" s="17"/>
       <c r="G339" s="56"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" s="8" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B340))</f>
         <v/>
@@ -6220,7 +6334,7 @@
       <c r="F340" s="15"/>
       <c r="G340" s="55"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" s="16" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B341))</f>
         <v/>
@@ -6232,7 +6346,7 @@
       <c r="F341" s="17"/>
       <c r="G341" s="56"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7">
       <c r="A342" s="8" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B342))</f>
         <v/>
@@ -6244,7 +6358,7 @@
       <c r="F342" s="15"/>
       <c r="G342" s="55"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7">
       <c r="A343" s="16" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B343))</f>
         <v/>
@@ -6256,7 +6370,7 @@
       <c r="F343" s="17"/>
       <c r="G343" s="56"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" s="8" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B344))</f>
         <v/>
@@ -6268,7 +6382,7 @@
       <c r="F344" s="15"/>
       <c r="G344" s="55"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" s="16" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B345))</f>
         <v/>
@@ -6280,7 +6394,7 @@
       <c r="F345" s="17"/>
       <c r="G345" s="56"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7">
       <c r="A346" s="8" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B346))</f>
         <v/>
@@ -6292,7 +6406,7 @@
       <c r="F346" s="15"/>
       <c r="G346" s="55"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" s="16" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B347))</f>
         <v/>
@@ -6304,7 +6418,7 @@
       <c r="F347" s="17"/>
       <c r="G347" s="56"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7">
       <c r="A348" s="8" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B348))</f>
         <v/>
@@ -6316,7 +6430,7 @@
       <c r="F348" s="15"/>
       <c r="G348" s="55"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7">
       <c r="A349" s="16" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B349))</f>
         <v/>
@@ -6328,7 +6442,7 @@
       <c r="F349" s="17"/>
       <c r="G349" s="56"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7">
       <c r="A350" s="8" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B350))</f>
         <v/>
@@ -6340,7 +6454,7 @@
       <c r="F350" s="15"/>
       <c r="G350" s="55"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" s="16" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B351))</f>
         <v/>
@@ -6352,7 +6466,7 @@
       <c r="F351" s="17"/>
       <c r="G351" s="56"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" s="8" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B352))</f>
         <v/>
@@ -6364,7 +6478,7 @@
       <c r="F352" s="15"/>
       <c r="G352" s="55"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" s="16" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B353))</f>
         <v/>
@@ -6376,7 +6490,7 @@
       <c r="F353" s="17"/>
       <c r="G353" s="56"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" s="8" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B354))</f>
         <v/>
@@ -6388,7 +6502,7 @@
       <c r="F354" s="15"/>
       <c r="G354" s="55"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7">
       <c r="A355" s="16" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B355))</f>
         <v/>
@@ -6400,7 +6514,7 @@
       <c r="F355" s="17"/>
       <c r="G355" s="56"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7">
       <c r="A356" s="8" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B356))</f>
         <v/>
@@ -6412,7 +6526,7 @@
       <c r="F356" s="15"/>
       <c r="G356" s="55"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7">
       <c r="A357" s="16" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B357))</f>
         <v/>
@@ -6424,7 +6538,7 @@
       <c r="F357" s="17"/>
       <c r="G357" s="56"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7">
       <c r="A358" s="8" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B358))</f>
         <v/>
@@ -6436,7 +6550,7 @@
       <c r="F358" s="15"/>
       <c r="G358" s="55"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7">
       <c r="A359" s="16" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B359))</f>
         <v/>
@@ -6448,7 +6562,7 @@
       <c r="F359" s="17"/>
       <c r="G359" s="56"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7">
       <c r="A360" s="8" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B360))</f>
         <v/>
@@ -6460,7 +6574,7 @@
       <c r="F360" s="15"/>
       <c r="G360" s="55"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7">
       <c r="A361" s="16" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B361))</f>
         <v/>
@@ -6472,7 +6586,7 @@
       <c r="F361" s="17"/>
       <c r="G361" s="56"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7">
       <c r="A362" s="8" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B362))</f>
         <v/>
@@ -6484,7 +6598,7 @@
       <c r="F362" s="15"/>
       <c r="G362" s="55"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7">
       <c r="A363" s="16" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B363))</f>
         <v/>
@@ -6496,7 +6610,7 @@
       <c r="F363" s="17"/>
       <c r="G363" s="56"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7">
       <c r="A364" s="8" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B364))</f>
         <v/>
@@ -6508,7 +6622,7 @@
       <c r="F364" s="15"/>
       <c r="G364" s="55"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" s="16" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B365))</f>
         <v/>
@@ -6520,7 +6634,7 @@
       <c r="F365" s="17"/>
       <c r="G365" s="56"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" s="8" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B366))</f>
         <v/>
@@ -6532,7 +6646,7 @@
       <c r="F366" s="15"/>
       <c r="G366" s="55"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7">
       <c r="A367" s="16" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B367))</f>
         <v/>
@@ -6544,7 +6658,7 @@
       <c r="F367" s="17"/>
       <c r="G367" s="56"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7">
       <c r="A368" s="8" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B368))</f>
         <v/>
@@ -6556,7 +6670,7 @@
       <c r="F368" s="15"/>
       <c r="G368" s="55"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7">
       <c r="A369" s="16" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B369))</f>
         <v/>
@@ -6568,7 +6682,7 @@
       <c r="F369" s="17"/>
       <c r="G369" s="56"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7">
       <c r="A370" s="8" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B370))</f>
         <v/>
@@ -6580,7 +6694,7 @@
       <c r="F370" s="15"/>
       <c r="G370" s="55"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7">
       <c r="A371" s="16" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B371))</f>
         <v/>
@@ -6592,7 +6706,7 @@
       <c r="F371" s="17"/>
       <c r="G371" s="56"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7">
       <c r="A372" s="8" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B372))</f>
         <v/>
@@ -6604,7 +6718,7 @@
       <c r="F372" s="15"/>
       <c r="G372" s="55"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7">
       <c r="A373" s="16" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B373))</f>
         <v/>
@@ -6616,7 +6730,7 @@
       <c r="F373" s="17"/>
       <c r="G373" s="56"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7">
       <c r="A374" s="8" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B374))</f>
         <v/>
@@ -6628,7 +6742,7 @@
       <c r="F374" s="15"/>
       <c r="G374" s="55"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7">
       <c r="A375" s="16" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B375))</f>
         <v/>
@@ -6640,7 +6754,7 @@
       <c r="F375" s="17"/>
       <c r="G375" s="56"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7">
       <c r="A376" s="8" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B376))</f>
         <v/>
@@ -6652,7 +6766,7 @@
       <c r="F376" s="15"/>
       <c r="G376" s="55"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7">
       <c r="A377" s="16" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B377))</f>
         <v/>
@@ -6664,7 +6778,7 @@
       <c r="F377" s="17"/>
       <c r="G377" s="56"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7">
       <c r="A378" s="8" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B378))</f>
         <v/>
@@ -6676,7 +6790,7 @@
       <c r="F378" s="15"/>
       <c r="G378" s="55"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7">
       <c r="A379" s="16" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B379))</f>
         <v/>
@@ -6688,7 +6802,7 @@
       <c r="F379" s="17"/>
       <c r="G379" s="56"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7">
       <c r="A380" s="8" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B380))</f>
         <v/>
@@ -6700,7 +6814,7 @@
       <c r="F380" s="15"/>
       <c r="G380" s="55"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7">
       <c r="A381" s="16" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B381))</f>
         <v/>
@@ -6712,7 +6826,7 @@
       <c r="F381" s="17"/>
       <c r="G381" s="56"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7">
       <c r="A382" s="8" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B382))</f>
         <v/>
@@ -6724,7 +6838,7 @@
       <c r="F382" s="15"/>
       <c r="G382" s="55"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7">
       <c r="A383" s="16" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B383))</f>
         <v/>
@@ -6736,7 +6850,7 @@
       <c r="F383" s="17"/>
       <c r="G383" s="56"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7">
       <c r="A384" s="8" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B384))</f>
         <v/>
@@ -6748,7 +6862,7 @@
       <c r="F384" s="15"/>
       <c r="G384" s="55"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7">
       <c r="A385" s="16" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B385))</f>
         <v/>
@@ -6760,7 +6874,7 @@
       <c r="F385" s="17"/>
       <c r="G385" s="56"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7">
       <c r="A386" s="8" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B386))</f>
         <v/>
@@ -6772,7 +6886,7 @@
       <c r="F386" s="15"/>
       <c r="G386" s="55"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7">
       <c r="A387" s="16" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B387))</f>
         <v/>
@@ -6784,7 +6898,7 @@
       <c r="F387" s="17"/>
       <c r="G387" s="56"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7">
       <c r="A388" s="8" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B388))</f>
         <v/>
@@ -6796,7 +6910,7 @@
       <c r="F388" s="15"/>
       <c r="G388" s="55"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7">
       <c r="A389" s="16" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B389))</f>
         <v/>
@@ -6808,7 +6922,7 @@
       <c r="F389" s="17"/>
       <c r="G389" s="56"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7">
       <c r="A390" s="8" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B390))</f>
         <v/>
@@ -6820,7 +6934,7 @@
       <c r="F390" s="15"/>
       <c r="G390" s="55"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7">
       <c r="A391" s="16" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B391))</f>
         <v/>
@@ -6832,7 +6946,7 @@
       <c r="F391" s="17"/>
       <c r="G391" s="56"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7">
       <c r="A392" s="8" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B392))</f>
         <v/>
@@ -6844,7 +6958,7 @@
       <c r="F392" s="15"/>
       <c r="G392" s="55"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7">
       <c r="A393" s="16" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B393))</f>
         <v/>
@@ -6856,7 +6970,7 @@
       <c r="F393" s="17"/>
       <c r="G393" s="56"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7">
       <c r="A394" s="8" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B394))</f>
         <v/>
@@ -6868,7 +6982,7 @@
       <c r="F394" s="15"/>
       <c r="G394" s="55"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7">
       <c r="A395" s="16" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B395))</f>
         <v/>
@@ -6880,7 +6994,7 @@
       <c r="F395" s="17"/>
       <c r="G395" s="56"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7">
       <c r="A396" s="8" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B396))</f>
         <v/>
@@ -6892,7 +7006,7 @@
       <c r="F396" s="15"/>
       <c r="G396" s="55"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7">
       <c r="A397" s="16" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B397))</f>
         <v/>
@@ -6904,7 +7018,7 @@
       <c r="F397" s="17"/>
       <c r="G397" s="56"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7">
       <c r="A398" s="8" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B398))</f>
         <v/>
@@ -6916,7 +7030,7 @@
       <c r="F398" s="15"/>
       <c r="G398" s="55"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7">
       <c r="A399" s="16" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B399))</f>
         <v/>
@@ -6928,7 +7042,7 @@
       <c r="F399" s="17"/>
       <c r="G399" s="56"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7">
       <c r="A400" s="8" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B400))</f>
         <v/>
@@ -6940,7 +7054,7 @@
       <c r="F400" s="15"/>
       <c r="G400" s="55"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7">
       <c r="A401" s="16" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B401))</f>
         <v/>
@@ -6952,7 +7066,7 @@
       <c r="F401" s="17"/>
       <c r="G401" s="56"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7">
       <c r="A402" s="8" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B402))</f>
         <v/>
@@ -6964,7 +7078,7 @@
       <c r="F402" s="15"/>
       <c r="G402" s="55"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7">
       <c r="A403" s="16" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B403))</f>
         <v/>
@@ -6976,7 +7090,7 @@
       <c r="F403" s="17"/>
       <c r="G403" s="56"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7">
       <c r="A404" s="8" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B404))</f>
         <v/>
@@ -6988,7 +7102,7 @@
       <c r="F404" s="15"/>
       <c r="G404" s="55"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7">
       <c r="A405" s="16" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B405))</f>
         <v/>
@@ -7000,7 +7114,7 @@
       <c r="F405" s="17"/>
       <c r="G405" s="56"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7">
       <c r="A406" s="8" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B406))</f>
         <v/>
@@ -7012,7 +7126,7 @@
       <c r="F406" s="15"/>
       <c r="G406" s="55"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7">
       <c r="A407" s="16" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B407))</f>
         <v/>
@@ -7024,7 +7138,7 @@
       <c r="F407" s="17"/>
       <c r="G407" s="56"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7">
       <c r="A408" s="8" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B408))</f>
         <v/>
@@ -7036,7 +7150,7 @@
       <c r="F408" s="15"/>
       <c r="G408" s="55"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7">
       <c r="A409" s="16" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B409))</f>
         <v/>
@@ -7048,7 +7162,7 @@
       <c r="F409" s="17"/>
       <c r="G409" s="56"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7">
       <c r="A410" s="8" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B410))</f>
         <v/>
@@ -7060,7 +7174,7 @@
       <c r="F410" s="15"/>
       <c r="G410" s="55"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7">
       <c r="A411" s="16" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B411))</f>
         <v/>
@@ -7072,7 +7186,7 @@
       <c r="F411" s="17"/>
       <c r="G411" s="56"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7">
       <c r="A412" s="8" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B412))</f>
         <v/>
@@ -7084,7 +7198,7 @@
       <c r="F412" s="15"/>
       <c r="G412" s="55"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7">
       <c r="A413" s="16" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B413))</f>
         <v/>
@@ -7096,7 +7210,7 @@
       <c r="F413" s="17"/>
       <c r="G413" s="56"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7">
       <c r="A414" s="8" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B414))</f>
         <v/>
@@ -7108,7 +7222,7 @@
       <c r="F414" s="15"/>
       <c r="G414" s="55"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7">
       <c r="A415" s="16" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B415))</f>
         <v/>
@@ -7120,7 +7234,7 @@
       <c r="F415" s="17"/>
       <c r="G415" s="56"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7">
       <c r="A416" s="8" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B416))</f>
         <v/>
@@ -7132,7 +7246,7 @@
       <c r="F416" s="15"/>
       <c r="G416" s="55"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7">
       <c r="A417" s="16" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B417))</f>
         <v/>
@@ -7144,7 +7258,7 @@
       <c r="F417" s="17"/>
       <c r="G417" s="56"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7">
       <c r="A418" s="8" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B418))</f>
         <v/>
@@ -7156,7 +7270,7 @@
       <c r="F418" s="15"/>
       <c r="G418" s="55"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7">
       <c r="A419" s="16" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B419))</f>
         <v/>
@@ -7168,7 +7282,7 @@
       <c r="F419" s="17"/>
       <c r="G419" s="56"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7">
       <c r="A420" s="8" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B420))</f>
         <v/>
@@ -7180,7 +7294,7 @@
       <c r="F420" s="15"/>
       <c r="G420" s="55"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7">
       <c r="A421" s="16" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B421))</f>
         <v/>
@@ -7192,7 +7306,7 @@
       <c r="F421" s="17"/>
       <c r="G421" s="56"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7">
       <c r="A422" s="8" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B422))</f>
         <v/>
@@ -7204,7 +7318,7 @@
       <c r="F422" s="15"/>
       <c r="G422" s="55"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7">
       <c r="A423" s="16" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B423))</f>
         <v/>
@@ -7216,7 +7330,7 @@
       <c r="F423" s="17"/>
       <c r="G423" s="56"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7">
       <c r="A424" s="8" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B424))</f>
         <v/>
@@ -7228,7 +7342,7 @@
       <c r="F424" s="15"/>
       <c r="G424" s="55"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7">
       <c r="A425" s="16" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B425))</f>
         <v/>
@@ -7240,7 +7354,7 @@
       <c r="F425" s="17"/>
       <c r="G425" s="56"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7">
       <c r="A426" s="8" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B426))</f>
         <v/>
@@ -7252,7 +7366,7 @@
       <c r="F426" s="15"/>
       <c r="G426" s="55"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7">
       <c r="A427" s="16" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B427))</f>
         <v/>
@@ -7264,7 +7378,7 @@
       <c r="F427" s="17"/>
       <c r="G427" s="56"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7">
       <c r="A428" s="8" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B428))</f>
         <v/>
@@ -7276,7 +7390,7 @@
       <c r="F428" s="15"/>
       <c r="G428" s="55"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7">
       <c r="A429" s="16" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B429))</f>
         <v/>
@@ -7288,7 +7402,7 @@
       <c r="F429" s="17"/>
       <c r="G429" s="56"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7">
       <c r="A430" s="8" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B430))</f>
         <v/>
@@ -7300,7 +7414,7 @@
       <c r="F430" s="15"/>
       <c r="G430" s="55"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7">
       <c r="A431" s="16" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B431))</f>
         <v/>
@@ -7312,7 +7426,7 @@
       <c r="F431" s="17"/>
       <c r="G431" s="56"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7">
       <c r="A432" s="8" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B432))</f>
         <v/>
@@ -7324,7 +7438,7 @@
       <c r="F432" s="15"/>
       <c r="G432" s="55"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7">
       <c r="A433" s="16" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B433))</f>
         <v/>
@@ -7336,7 +7450,7 @@
       <c r="F433" s="17"/>
       <c r="G433" s="56"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7">
       <c r="A434" s="8" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B434))</f>
         <v/>
@@ -7348,7 +7462,7 @@
       <c r="F434" s="15"/>
       <c r="G434" s="55"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7">
       <c r="A435" s="16" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B435))</f>
         <v/>
@@ -7360,7 +7474,7 @@
       <c r="F435" s="17"/>
       <c r="G435" s="56"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7">
       <c r="A436" s="8" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B436))</f>
         <v/>
@@ -7372,7 +7486,7 @@
       <c r="F436" s="15"/>
       <c r="G436" s="55"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7">
       <c r="A437" s="16" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B437))</f>
         <v/>
@@ -7384,7 +7498,7 @@
       <c r="F437" s="17"/>
       <c r="G437" s="56"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7">
       <c r="A438" s="8" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B438))</f>
         <v/>
@@ -7396,7 +7510,7 @@
       <c r="F438" s="15"/>
       <c r="G438" s="55"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7">
       <c r="A439" s="16" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B439))</f>
         <v/>
@@ -7408,7 +7522,7 @@
       <c r="F439" s="17"/>
       <c r="G439" s="56"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7">
       <c r="A440" s="8" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B440))</f>
         <v/>
@@ -7420,7 +7534,7 @@
       <c r="F440" s="15"/>
       <c r="G440" s="55"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7">
       <c r="A441" s="16" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B441))</f>
         <v/>
@@ -7432,7 +7546,7 @@
       <c r="F441" s="17"/>
       <c r="G441" s="56"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7">
       <c r="A442" s="8" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B442))</f>
         <v/>
@@ -7444,7 +7558,7 @@
       <c r="F442" s="15"/>
       <c r="G442" s="55"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7">
       <c r="A443" s="16" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B443))</f>
         <v/>
@@ -7456,7 +7570,7 @@
       <c r="F443" s="17"/>
       <c r="G443" s="56"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7">
       <c r="A444" s="8" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B444))</f>
         <v/>
@@ -7468,7 +7582,7 @@
       <c r="F444" s="15"/>
       <c r="G444" s="55"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7">
       <c r="A445" s="16" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B445))</f>
         <v/>
@@ -7480,7 +7594,7 @@
       <c r="F445" s="17"/>
       <c r="G445" s="56"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7">
       <c r="A446" s="8" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B446))</f>
         <v/>
@@ -7492,7 +7606,7 @@
       <c r="F446" s="15"/>
       <c r="G446" s="55"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7">
       <c r="A447" s="16" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B447))</f>
         <v/>
@@ -7504,7 +7618,7 @@
       <c r="F447" s="17"/>
       <c r="G447" s="56"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7">
       <c r="A448" s="8" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B448))</f>
         <v/>
@@ -7516,7 +7630,7 @@
       <c r="F448" s="15"/>
       <c r="G448" s="55"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7">
       <c r="A449" s="16" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B449))</f>
         <v/>
@@ -7528,7 +7642,7 @@
       <c r="F449" s="17"/>
       <c r="G449" s="56"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7">
       <c r="A450" s="8" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B450))</f>
         <v/>
@@ -7540,7 +7654,7 @@
       <c r="F450" s="15"/>
       <c r="G450" s="55"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7">
       <c r="A451" s="16" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B451))</f>
         <v/>
@@ -7552,7 +7666,7 @@
       <c r="F451" s="17"/>
       <c r="G451" s="56"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7">
       <c r="A452" s="8" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B452))</f>
         <v/>
@@ -7564,7 +7678,7 @@
       <c r="F452" s="15"/>
       <c r="G452" s="55"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7">
       <c r="A453" s="16" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B453))</f>
         <v/>
@@ -7576,7 +7690,7 @@
       <c r="F453" s="17"/>
       <c r="G453" s="56"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7">
       <c r="A454" s="8" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B454))</f>
         <v/>
@@ -7588,7 +7702,7 @@
       <c r="F454" s="15"/>
       <c r="G454" s="55"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7">
       <c r="A455" s="16" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B455))</f>
         <v/>
@@ -7600,7 +7714,7 @@
       <c r="F455" s="17"/>
       <c r="G455" s="56"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7">
       <c r="A456" s="8" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B456))</f>
         <v/>
@@ -7612,7 +7726,7 @@
       <c r="F456" s="15"/>
       <c r="G456" s="55"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7">
       <c r="A457" s="16" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B457))</f>
         <v/>
@@ -7624,7 +7738,7 @@
       <c r="F457" s="17"/>
       <c r="G457" s="56"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7">
       <c r="A458" s="8" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B458))</f>
         <v/>
@@ -7636,7 +7750,7 @@
       <c r="F458" s="15"/>
       <c r="G458" s="55"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7">
       <c r="A459" s="16" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B459))</f>
         <v/>
@@ -7648,7 +7762,7 @@
       <c r="F459" s="17"/>
       <c r="G459" s="56"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7">
       <c r="A460" s="8" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B460))</f>
         <v/>
@@ -7660,7 +7774,7 @@
       <c r="F460" s="15"/>
       <c r="G460" s="55"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7">
       <c r="A461" s="16" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B461))</f>
         <v/>
@@ -7672,7 +7786,7 @@
       <c r="F461" s="17"/>
       <c r="G461" s="56"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7">
       <c r="A462" s="8" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B462))</f>
         <v/>
@@ -7684,7 +7798,7 @@
       <c r="F462" s="15"/>
       <c r="G462" s="55"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7">
       <c r="A463" s="16" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B463))</f>
         <v/>
@@ -7696,7 +7810,7 @@
       <c r="F463" s="17"/>
       <c r="G463" s="56"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7">
       <c r="A464" s="8" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B464))</f>
         <v/>
@@ -7708,7 +7822,7 @@
       <c r="F464" s="15"/>
       <c r="G464" s="55"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7">
       <c r="A465" s="16" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B465))</f>
         <v/>
@@ -7720,7 +7834,7 @@
       <c r="F465" s="17"/>
       <c r="G465" s="56"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7">
       <c r="A466" s="8" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B466))</f>
         <v/>
@@ -7732,7 +7846,7 @@
       <c r="F466" s="15"/>
       <c r="G466" s="55"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7">
       <c r="A467" s="16" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B467))</f>
         <v/>
@@ -7744,7 +7858,7 @@
       <c r="F467" s="17"/>
       <c r="G467" s="56"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7">
       <c r="A468" s="8" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B468))</f>
         <v/>
@@ -7756,7 +7870,7 @@
       <c r="F468" s="15"/>
       <c r="G468" s="55"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7">
       <c r="A469" s="16" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B469))</f>
         <v/>
@@ -7768,7 +7882,7 @@
       <c r="F469" s="17"/>
       <c r="G469" s="56"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7">
       <c r="A470" s="8" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B470))</f>
         <v/>
@@ -7780,7 +7894,7 @@
       <c r="F470" s="15"/>
       <c r="G470" s="55"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7">
       <c r="A471" s="16" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B471))</f>
         <v/>
@@ -7792,7 +7906,7 @@
       <c r="F471" s="17"/>
       <c r="G471" s="56"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7">
       <c r="A472" s="8" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B472))</f>
         <v/>
@@ -7804,7 +7918,7 @@
       <c r="F472" s="15"/>
       <c r="G472" s="55"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7">
       <c r="A473" s="16" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B473))</f>
         <v/>
@@ -7816,7 +7930,7 @@
       <c r="F473" s="17"/>
       <c r="G473" s="56"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7">
       <c r="A474" s="8" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B474))</f>
         <v/>
@@ -7828,7 +7942,7 @@
       <c r="F474" s="15"/>
       <c r="G474" s="55"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7">
       <c r="A475" s="16" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B475))</f>
         <v/>
@@ -7840,7 +7954,7 @@
       <c r="F475" s="17"/>
       <c r="G475" s="56"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7">
       <c r="A476" s="8" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B476))</f>
         <v/>
@@ -7852,7 +7966,7 @@
       <c r="F476" s="15"/>
       <c r="G476" s="55"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7">
       <c r="A477" s="16" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B477))</f>
         <v/>
@@ -7864,7 +7978,7 @@
       <c r="F477" s="17"/>
       <c r="G477" s="56"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7">
       <c r="A478" s="8" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B478))</f>
         <v/>
@@ -7876,7 +7990,7 @@
       <c r="F478" s="15"/>
       <c r="G478" s="55"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7">
       <c r="A479" s="16" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B479))</f>
         <v/>
@@ -7888,7 +8002,7 @@
       <c r="F479" s="17"/>
       <c r="G479" s="56"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7">
       <c r="A480" s="8" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B480))</f>
         <v/>
@@ -7900,7 +8014,7 @@
       <c r="F480" s="15"/>
       <c r="G480" s="55"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7">
       <c r="A481" s="16" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B481))</f>
         <v/>
@@ -7912,7 +8026,7 @@
       <c r="F481" s="17"/>
       <c r="G481" s="56"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7">
       <c r="A482" s="8" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B482))</f>
         <v/>
@@ -7924,7 +8038,7 @@
       <c r="F482" s="15"/>
       <c r="G482" s="55"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7">
       <c r="A483" s="16" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B483))</f>
         <v/>
@@ -7936,7 +8050,7 @@
       <c r="F483" s="17"/>
       <c r="G483" s="56"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7">
       <c r="A484" s="8" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B484))</f>
         <v/>
@@ -7948,7 +8062,7 @@
       <c r="F484" s="15"/>
       <c r="G484" s="55"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7">
       <c r="A485" s="16" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B485))</f>
         <v/>
@@ -7960,7 +8074,7 @@
       <c r="F485" s="17"/>
       <c r="G485" s="56"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7">
       <c r="A486" s="8" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B486))</f>
         <v/>
@@ -7972,7 +8086,7 @@
       <c r="F486" s="15"/>
       <c r="G486" s="55"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7">
       <c r="A487" s="16" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B487))</f>
         <v/>
@@ -7984,7 +8098,7 @@
       <c r="F487" s="17"/>
       <c r="G487" s="56"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7">
       <c r="A488" s="8" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B488))</f>
         <v/>
@@ -7996,7 +8110,7 @@
       <c r="F488" s="15"/>
       <c r="G488" s="55"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7">
       <c r="A489" s="16" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B489))</f>
         <v/>
@@ -8008,7 +8122,7 @@
       <c r="F489" s="17"/>
       <c r="G489" s="56"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7">
       <c r="A490" s="8" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B490))</f>
         <v/>
@@ -8020,7 +8134,7 @@
       <c r="F490" s="15"/>
       <c r="G490" s="55"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7">
       <c r="A491" s="16" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B491))</f>
         <v/>
@@ -8032,7 +8146,7 @@
       <c r="F491" s="17"/>
       <c r="G491" s="56"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7">
       <c r="A492" s="8" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B492))</f>
         <v/>
@@ -8044,7 +8158,7 @@
       <c r="F492" s="15"/>
       <c r="G492" s="55"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7">
       <c r="A493" s="16" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B493))</f>
         <v/>
@@ -8056,7 +8170,7 @@
       <c r="F493" s="17"/>
       <c r="G493" s="56"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7">
       <c r="A494" s="8" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B494))</f>
         <v/>
@@ -8068,7 +8182,7 @@
       <c r="F494" s="15"/>
       <c r="G494" s="55"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7">
       <c r="A495" s="16" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B495))</f>
         <v/>
@@ -8080,7 +8194,7 @@
       <c r="F495" s="17"/>
       <c r="G495" s="56"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7">
       <c r="A496" s="8" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B496))</f>
         <v/>
@@ -8092,7 +8206,7 @@
       <c r="F496" s="15"/>
       <c r="G496" s="55"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7">
       <c r="A497" s="16" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B497))</f>
         <v/>
@@ -8104,7 +8218,7 @@
       <c r="F497" s="17"/>
       <c r="G497" s="56"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7">
       <c r="A498" s="8" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B498))</f>
         <v/>
@@ -8116,7 +8230,7 @@
       <c r="F498" s="15"/>
       <c r="G498" s="55"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7">
       <c r="A499" s="16" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B499))</f>
         <v/>
@@ -8128,7 +8242,7 @@
       <c r="F499" s="17"/>
       <c r="G499" s="56"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7">
       <c r="A500" s="8" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B500))</f>
         <v/>
@@ -8140,7 +8254,7 @@
       <c r="F500" s="15"/>
       <c r="G500" s="55"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7">
       <c r="A501" s="16" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B501))</f>
         <v/>
@@ -8152,7 +8266,7 @@
       <c r="F501" s="17"/>
       <c r="G501" s="56"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7">
       <c r="A502" s="8" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B502))</f>
         <v/>
@@ -8164,7 +8278,7 @@
       <c r="F502" s="15"/>
       <c r="G502" s="55"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7">
       <c r="A503" s="16" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B503))</f>
         <v/>
@@ -8176,7 +8290,7 @@
       <c r="F503" s="17"/>
       <c r="G503" s="56"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7">
       <c r="A504" s="8" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B504))</f>
         <v/>
@@ -8188,7 +8302,7 @@
       <c r="F504" s="15"/>
       <c r="G504" s="55"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7">
       <c r="A505" s="16" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B505))</f>
         <v/>
@@ -8200,7 +8314,7 @@
       <c r="F505" s="17"/>
       <c r="G505" s="56"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7">
       <c r="A506" s="8" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B506))</f>
         <v/>
@@ -8212,7 +8326,7 @@
       <c r="F506" s="15"/>
       <c r="G506" s="55"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7">
       <c r="A507" s="16" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B507))</f>
         <v/>
@@ -8224,7 +8338,7 @@
       <c r="F507" s="17"/>
       <c r="G507" s="56"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7">
       <c r="A508" s="8" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B508))</f>
         <v/>
@@ -8236,7 +8350,7 @@
       <c r="F508" s="15"/>
       <c r="G508" s="55"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7">
       <c r="A509" s="16" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B509))</f>
         <v/>
@@ -8248,7 +8362,7 @@
       <c r="F509" s="17"/>
       <c r="G509" s="56"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7">
       <c r="A510" s="8" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B510))</f>
         <v/>
@@ -8260,7 +8374,7 @@
       <c r="F510" s="15"/>
       <c r="G510" s="55"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7">
       <c r="A511" s="16" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B511))</f>
         <v/>
@@ -8272,7 +8386,7 @@
       <c r="F511" s="17"/>
       <c r="G511" s="56"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7">
       <c r="A512" s="8" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B512))</f>
         <v/>
@@ -8284,7 +8398,7 @@
       <c r="F512" s="15"/>
       <c r="G512" s="55"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7">
       <c r="A513" s="16" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B513))</f>
         <v/>
@@ -8296,7 +8410,7 @@
       <c r="F513" s="17"/>
       <c r="G513" s="56"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7">
       <c r="A514" s="8" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B514))</f>
         <v/>
@@ -8308,7 +8422,7 @@
       <c r="F514" s="15"/>
       <c r="G514" s="55"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7">
       <c r="A515" s="16" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B515))</f>
         <v/>
@@ -8320,7 +8434,7 @@
       <c r="F515" s="17"/>
       <c r="G515" s="56"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7">
       <c r="A516" s="8" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B516))</f>
         <v/>
@@ -8332,7 +8446,7 @@
       <c r="F516" s="15"/>
       <c r="G516" s="55"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7">
       <c r="A517" s="16" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B517))</f>
         <v/>
@@ -8344,7 +8458,7 @@
       <c r="F517" s="17"/>
       <c r="G517" s="56"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7">
       <c r="A518" s="8" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B518))</f>
         <v/>
@@ -8356,7 +8470,7 @@
       <c r="F518" s="15"/>
       <c r="G518" s="55"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7">
       <c r="A519" s="16" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B519))</f>
         <v/>
@@ -8368,7 +8482,7 @@
       <c r="F519" s="17"/>
       <c r="G519" s="56"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7">
       <c r="A520" s="8" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B520))</f>
         <v/>
@@ -8380,7 +8494,7 @@
       <c r="F520" s="15"/>
       <c r="G520" s="55"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7">
       <c r="A521" s="16" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B521))</f>
         <v/>
@@ -8392,7 +8506,7 @@
       <c r="F521" s="17"/>
       <c r="G521" s="56"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7">
       <c r="A522" s="8" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B522))</f>
         <v/>
@@ -8404,7 +8518,7 @@
       <c r="F522" s="15"/>
       <c r="G522" s="55"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7">
       <c r="A523" s="16" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B523))</f>
         <v/>
@@ -8416,7 +8530,7 @@
       <c r="F523" s="17"/>
       <c r="G523" s="56"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7">
       <c r="A524" s="8" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B524))</f>
         <v/>
@@ -8428,7 +8542,7 @@
       <c r="F524" s="15"/>
       <c r="G524" s="55"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7">
       <c r="A525" s="16" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B525))</f>
         <v/>
@@ -8440,7 +8554,7 @@
       <c r="F525" s="17"/>
       <c r="G525" s="56"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7">
       <c r="A526" s="8" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B526))</f>
         <v/>
@@ -8452,7 +8566,7 @@
       <c r="F526" s="15"/>
       <c r="G526" s="55"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7">
       <c r="A527" s="16" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B527))</f>
         <v/>
@@ -8464,7 +8578,7 @@
       <c r="F527" s="17"/>
       <c r="G527" s="56"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7">
       <c r="A528" s="8" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B528))</f>
         <v/>
@@ -8476,7 +8590,7 @@
       <c r="F528" s="15"/>
       <c r="G528" s="55"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7">
       <c r="A529" s="16" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B529))</f>
         <v/>
@@ -8488,7 +8602,7 @@
       <c r="F529" s="17"/>
       <c r="G529" s="56"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7">
       <c r="A530" s="8" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B530))</f>
         <v/>
@@ -8500,7 +8614,7 @@
       <c r="F530" s="15"/>
       <c r="G530" s="55"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7">
       <c r="A531" s="16" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B531))</f>
         <v/>
@@ -8512,7 +8626,7 @@
       <c r="F531" s="17"/>
       <c r="G531" s="56"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7">
       <c r="A532" s="8" t="str">
         <f>IF(ISBLANK(B532),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B532))</f>
         <v/>
@@ -8531,28 +8645,28 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E532">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8584,28 +8698,28 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="10.875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>60</v>
@@ -8623,14 +8737,14 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8638,10 +8752,10 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8659,14 +8773,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C7" s="27" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8674,10 +8788,10 @@
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8695,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C9,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8713,14 +8827,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
       </c>
       <c r="B10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$D$7:$D$532)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>'Journal de travail'!M14</f>
@@ -8728,10 +8842,10 @@
       </c>
       <c r="D10" s="33">
         <f t="shared" si="0"/>
-        <v>1.7361111111111112E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8749,16 +8863,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="C12" s="23" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>5.9027777777777776E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.73958333333333326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="D14" s="38"/>
     </row>
   </sheetData>
@@ -8769,6 +8883,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -8991,60 +9125,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}"/>
 </file>